--- a/database/files/business-upload/dollar-upload.xlsx
+++ b/database/files/business-upload/dollar-upload.xlsx
@@ -42,9 +42,6 @@
     <t xml:space="preserve">*Sub Measure Name </t>
   </si>
   <si>
-    <t>Input Product value</t>
-  </si>
-  <si>
     <t>Input Sales Value</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Revenue Classification</t>
+  </si>
+  <si>
+    <t>Input Product Value</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -505,31 +505,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/database/files/business-upload/dollar-upload.xlsx
+++ b/database/files/business-upload/dollar-upload.xlsx
@@ -34,6 +34,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>indicates that the field is mandatory</t>
     </r>
@@ -455,7 +456,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
